--- a/OD_Traceability_Document_Integration.xlsx
+++ b/OD_Traceability_Document_Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amit D Drive\Gyan\Software\IPrimed\My Demo Guiding\Project FB\OD_ProjectData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0AC8481-4371-4095-98C4-CDF696AF3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EAB7C-9E47-4155-B925-E4209BD63CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>No</t>
   </si>
@@ -117,6 +117,34 @@
 8.DAO-Inventory_DAO.java,Inventory_DAO_Imp.java
 9-inventory-list component(Ng)
 </t>
+  </si>
+  <si>
+    <t>ReturnManagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.customer-login.coponent(Ng)
+2.customer.ts
+3.customer.service.ts
+4customer-registration component(Ng)
+5 customer product component(Ng)
+6 customer prodlist component(Ng)
+7 customer order component(Ng)
+8.Controller-webcontroller.java
+9.Service-Customer_Service.java,Customer_Sevice_Imp.java
+10-Model-Customer.java
+11.DAO-Customer_DAO.java,Customer_DAO_Imp.java
+12.Controller-webcontroller.java
+13.Service-CustomerProduct_Service.java,CustomerProduct_Sevice_Imp.java
+14-Model-CustomerProduct.java
+15.DAO-CustomerProduct_DAO.java,CustomerProduct_DAO_Imp.java
+16.Controller-webcontroller.java
+17.Service-CustomerOrder_Service.java,CustomerOrder_Sevice_Imp.java
+18-Model-CustomerOrder.java
+19.DAO-CustomerOrder_DAO.java,CustomerOrder_DAO_Imp.java
+</t>
+  </si>
+  <si>
+    <t>customer ,customerproduct ,customerorder</t>
   </si>
 </sst>
 </file>
@@ -151,13 +179,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -586,8 +620,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G5" s="2"/>
+    <row r="5" spans="1:14" ht="408.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/OD_Traceability_Document_Integration.xlsx
+++ b/OD_Traceability_Document_Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amit D Drive\Gyan\Software\IPrimed\My Demo Guiding\Project FB\OD_ProjectData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74EAB7C-9E47-4155-B925-E4209BD63CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753F8DEA-DBFB-4358-9401-F1BE494B6511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>No</t>
   </si>
@@ -145,6 +145,22 @@
   </si>
   <si>
     <t>customer ,customerproduct ,customerorder</t>
+  </si>
+  <si>
+    <t>MixedRevenue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.revenue-addcoponent(Ng)
+2.revenue.ts
+3.revenue.service.ts
+4revenue-list component(Ng)
+5 revenue-search component(Ng)
+6.Controller-webcontroller.java
+7.Service-Revenue_Service.java,Revenue_Sevice_Imp.java
+8-Model-Customer.java
+9.DAO-Revenue_DAO.java,Revenue_DAO_Imp.java
+10.Controller-webcontroller.java
+</t>
   </si>
 </sst>
 </file>
@@ -473,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK5"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,6 +656,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="6" spans="1:14" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
